--- a/biology/Zoologie/Brachycaudus/Brachycaudus.xlsx
+++ b/biology/Zoologie/Brachycaudus/Brachycaudus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachycaudus est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Aphididae (pucerons).
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachycaudus cardui — puceron de l'artichaut
 Brachycaudus helichrysi — puceron vert du prunier
